--- a/Assets/Excel/SkillEffectView.xlsx
+++ b/Assets/Excel/SkillEffectView.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,12 @@
     <t>effectViewPosType</t>
   </si>
   <si>
+    <t>prefabUrl</t>
+  </si>
+  <si>
+    <t>destroyTime</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -34,10 +40,28 @@
     <t>enum|EffectViewPosType</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>FireBall</t>
   </si>
   <si>
     <t>TargetPos</t>
+  </si>
+  <si>
+    <t>peFireBall</t>
+  </si>
+  <si>
+    <t>FireBallBoom</t>
+  </si>
+  <si>
+    <t>AllTile</t>
+  </si>
+  <si>
+    <t>peFireBallBoom</t>
   </si>
 </sst>
 </file>
@@ -968,19 +992,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="20.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="15.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -990,27 +1016,62 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillEffectView.xlsx
+++ b/Assets/Excel/SkillEffectView.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16080" windowHeight="11480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffectView" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -22,9 +22,6 @@
     <t>effectViewType</t>
   </si>
   <si>
-    <t>effectViewPosType</t>
-  </si>
-  <si>
     <t>prefabUrl</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>enum|EffectViewType</t>
   </si>
   <si>
-    <t>enum|EffectViewPosType</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -49,16 +43,10 @@
     <t>FireBall</t>
   </si>
   <si>
-    <t>TargetPos</t>
-  </si>
-  <si>
     <t>peFireBall</t>
   </si>
   <si>
     <t>FireBallBoom</t>
-  </si>
-  <si>
-    <t>AllTile</t>
   </si>
   <si>
     <t>peFireBallBoom</t>
@@ -992,21 +980,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="15.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1019,58 +1006,46 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="D5">
         <v>0.4</v>
       </c>
     </row>

--- a/Assets/Excel/SkillEffectView.xlsx
+++ b/Assets/Excel/SkillEffectView.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>peFireBallBoom</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>peThunder</t>
   </si>
 </sst>
 </file>
@@ -980,13 +986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
@@ -1049,6 +1055,20 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillEffectView.xlsx
+++ b/Assets/Excel/SkillEffectView.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="9900" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffectView" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>peThunder</t>
+  </si>
+  <si>
+    <t>ThunderHit</t>
+  </si>
+  <si>
+    <t>peThunderHit</t>
   </si>
 </sst>
 </file>
@@ -986,13 +992,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
@@ -1069,6 +1075,20 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillEffectView.xlsx
+++ b/Assets/Excel/SkillEffectView.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9900" windowHeight="6090"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffectView" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>peThunderHit</t>
+  </si>
+  <si>
+    <t>EnergyFire</t>
+  </si>
+  <si>
+    <t>peEnergyFire</t>
   </si>
 </sst>
 </file>
@@ -992,13 +998,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
@@ -1089,6 +1095,20 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillEffectView.xlsx
+++ b/Assets/Excel/SkillEffectView.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>peFireBallBoom</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>peGravity</t>
   </si>
   <si>
     <t>Thunder</t>
@@ -998,13 +1004,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
@@ -1078,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1092,7 +1098,7 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1106,6 +1112,20 @@
         <v>17</v>
       </c>
       <c r="D8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/SkillEffectView.xlsx
+++ b/Assets/Excel/SkillEffectView.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="SkillEffectView" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -74,12 +87,18 @@
   </si>
   <si>
     <t>peEnergyFire</t>
+  </si>
+  <si>
+    <t>Fourtain</t>
+  </si>
+  <si>
+    <t>peFourtain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1004,10 +1023,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1129,6 +1148,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillEffectView.xlsx
+++ b/Assets/Excel/SkillEffectView.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>peFourtain</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>peCut</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1029,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1162,6 +1168,20 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillEffectView.xlsx
+++ b/Assets/Excel/SkillEffectView.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="13830" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffectView" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>peCut</t>
+  </si>
+  <si>
+    <t>Tadpole</t>
+  </si>
+  <si>
+    <t>peTadpole</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1182,6 +1188,20 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
